--- a/tl/S00050.MES.BIN.xlsx
+++ b/tl/S00050.MES.BIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5BDDB-DA5F-4720-B62A-CFC602B94481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B777F51-A4AA-4B16-A46B-B97C7570EB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="231">
   <si>
     <t>Status</t>
   </si>
@@ -173,9 +173,6 @@
     <t>37</t>
   </si>
   <si>
-    <t>The dressing room follows strict rules like "let's keep it clean for everyone" that make it feel like a elementary school, but the white walls remain spotless and it is an uncommonly clean space within the station.</t>
-  </si>
-  <si>
     <t>The waiting room was strictly upholding the rules like, "Let's use it nicely, everyone," like an elementary school, and it was a rare clean space within the station, with white walls still white.</t>
   </si>
   <si>
@@ -708,6 +705,9 @@
   </si>
   <si>
     <t>Don't read many books</t>
+  </si>
+  <si>
+    <t>The dressing room follows strict rules like "let's keep it clean for everyone" that make it feel like an elementary school, but the white walls remain spotless and it is an uncommonly clean space within the station.</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,10 +1766,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1786,22 +1786,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -1818,22 +1818,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1850,22 +1850,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -1882,22 +1882,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1914,22 +1914,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1946,22 +1946,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1978,22 +1978,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -2010,22 +2010,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -2042,22 +2042,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -2074,22 +2074,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -2106,22 +2106,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -2138,22 +2138,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -2170,22 +2170,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -2202,22 +2202,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -2234,22 +2234,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -2266,22 +2266,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -2298,10 +2298,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>12</v>
@@ -2313,7 +2313,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -2330,22 +2330,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -2362,22 +2362,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2394,22 +2394,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2426,10 +2426,10 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>12</v>
@@ -2438,10 +2438,10 @@
         <v>9</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2458,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -2470,10 +2470,10 @@
         <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
@@ -2490,22 +2490,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
@@ -2522,10 +2522,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>12</v>
@@ -2537,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2554,22 +2554,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>9</v>
@@ -2586,22 +2586,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>9</v>
@@ -2618,22 +2618,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>9</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>12</v>
@@ -2662,10 +2662,10 @@
         <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -2682,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>10</v>
@@ -2697,7 +2697,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
@@ -2714,10 +2714,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>12</v>
@@ -2729,7 +2729,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -2746,7 +2746,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>10</v>
@@ -2761,7 +2761,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
@@ -2778,10 +2778,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>12</v>
@@ -2790,10 +2790,10 @@
         <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -2810,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>10</v>
@@ -2825,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>9</v>
@@ -2842,10 +2842,10 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>12</v>
@@ -2857,7 +2857,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>9</v>
@@ -2874,10 +2874,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>12</v>
@@ -2889,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>9</v>
@@ -2906,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>9</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>9</v>
@@ -2938,10 +2938,10 @@
         <v>9</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>12</v>
@@ -2953,7 +2953,7 @@
         <v>9</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>9</v>
@@ -2970,7 +2970,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2985,7 +2985,7 @@
         <v>9</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>9</v>
@@ -3002,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
@@ -3014,10 +3014,10 @@
         <v>9</v>
       </c>
       <c r="F59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>9</v>
@@ -3034,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -3049,7 +3049,7 @@
         <v>36</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>9</v>
@@ -3066,10 +3066,10 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>12</v>
@@ -3081,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -3098,22 +3098,22 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3130,10 +3130,10 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>12</v>
@@ -3142,10 +3142,10 @@
         <v>9</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -3162,22 +3162,22 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3194,10 +3194,10 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>12</v>
@@ -3206,10 +3206,10 @@
         <v>9</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3226,22 +3226,22 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3258,22 +3258,22 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>9</v>
@@ -3290,10 +3290,10 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>12</v>
@@ -3302,10 +3302,10 @@
         <v>9</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3322,10 +3322,10 @@
         <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>12</v>
@@ -3334,10 +3334,10 @@
         <v>9</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>9</v>
@@ -3354,7 +3354,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -3366,10 +3366,10 @@
         <v>9</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3386,22 +3386,22 @@
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>9</v>
@@ -3418,10 +3418,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>12</v>
@@ -3430,10 +3430,10 @@
         <v>9</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>9</v>
@@ -3450,22 +3450,22 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>9</v>
@@ -3482,7 +3482,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
@@ -3497,7 +3497,7 @@
         <v>9</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3514,22 +3514,22 @@
         <v>9</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>9</v>
@@ -3546,22 +3546,22 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3578,7 +3578,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>10</v>
@@ -3590,10 +3590,10 @@
         <v>9</v>
       </c>
       <c r="F77" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>9</v>
@@ -3610,22 +3610,22 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -3642,22 +3642,22 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>9</v>
@@ -3674,10 +3674,10 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>12</v>
@@ -3686,10 +3686,10 @@
         <v>9</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -3706,7 +3706,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>10</v>
@@ -3718,10 +3718,10 @@
         <v>9</v>
       </c>
       <c r="F81" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>9</v>
@@ -3738,22 +3738,22 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -3770,22 +3770,22 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>9</v>
@@ -3802,10 +3802,10 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>12</v>
@@ -3817,7 +3817,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -3834,22 +3834,22 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>9</v>
@@ -3866,10 +3866,10 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>12</v>
@@ -3881,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>9</v>
@@ -3898,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>10</v>
@@ -3913,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>9</v>
@@ -3930,10 +3930,10 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>12</v>
@@ -3942,13 +3942,13 @@
         <v>9</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>9</v>
@@ -3962,22 +3962,22 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="4" t="s">
+      <c r="G89" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>9</v>
@@ -3994,22 +3994,22 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>9</v>
@@ -4026,22 +4026,22 @@
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>9</v>
@@ -4058,22 +4058,22 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>9</v>

--- a/tl/S00050.MES.BIN.xlsx
+++ b/tl/S00050.MES.BIN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B777F51-A4AA-4B16-A46B-B97C7570EB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9F32D8-676F-41DD-9F6E-5CA909D67E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="19005" windowWidth="54585" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00050.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="232">
   <si>
     <t>Status</t>
   </si>
@@ -53,262 +53,268 @@
     <t>3</t>
   </si>
   <si>
+    <t>Floor Director</t>
+  </si>
+  <si>
+    <t>Heeey, Fujii-kun. Hey!"</t>
+  </si>
+  <si>
+    <t>The FD (Floor Director) is calling.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>I wonder what it could be?</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Usually they call me '&lt;RBaito|part-timer&gt;', but this time it's 'Fujii-kun'.</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Touya</t>
+  </si>
+  <si>
+    <t>What is it?"</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>The FD has a slightly unpleasant look on his face.</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>"I'm pretty sure you're friends with Morikawa, right, Fujii-kun?"</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>"Um, well..."</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>It's unusual for someone from the company to talk about private matters.</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>"You see, it looks like Morikawa left the earrings she's going to wear on stage in the dressing room today."</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Morikawa-san and the manager are currently too busy doing the final check."</t>
+  </si>
+  <si>
+    <t>Not sure why -san is only on this line.</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Right...</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>I heard they're in her bag. Sorry to ask, but could you go get them for me? You should be able to recognize Morikawa's belongings, right?"</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Yeah, probably..."</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Sorry again, but could you go and get them quickly? I heard the earrings are easy to spot."</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Oh, I also need to go back to the final check soon. Alright, hurry back."</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>His shoes make loud sounds as he walk back to the stage.</t>
+  </si>
+  <si>
+    <t>He then makes loud slipper noises and returns to the stage.</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>It can't be helped. I quickly head for the dressing room.</t>
+  </si>
+  <si>
+    <t>No choice. I quickly heads for the dressing room.</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>The dressing room follows strict rules like "let's keep it clean for everyone" that make it feel like a elementary school, but the white walls remain spotless and it is an uncommonly clean space within the station.</t>
+  </si>
+  <si>
+    <t>The waiting room was strictly upholding the rules like, "Let's use it nicely, everyone," like an elementary school, and it was a rare clean space within the station, with white walls still white.</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Let's see… Where is Yuki's bag?</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Oh, there it is.</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>A cloth bag is placed on the corner of the couch. Inside it is a faint pink pouch.</t>
+  </si>
+  <si>
+    <t>A cloth bag is placed in the corner of the long chair. There was a faint pink pouch inside.</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Probably inside this...</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>...There they are.</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>I suppose even such a small accessory is very important to a pro.</t>
+  </si>
+  <si>
+    <t>I suppose even such a small accessory is very important to an expert.</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>I can't say I understand, but I have to hurry and return them anyway.</t>
+  </si>
+  <si>
+    <t>I can't say I understand, but I have to hurry and get it anyway.</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Something catches my attention as I'm about to leave though.</t>
+  </si>
+  <si>
+    <t>Then, as I'm about to leave,</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>What's this? Someone has left their notebook on the table.</t>
+  </si>
+  <si>
+    <t>Oh no...Someone has left their notebook on the table.</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Whose could it be?</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>I'll take a closer look.</t>
+  </si>
+  <si>
+    <t>Let me take a look.</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>No, it's not a notebook.</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Rather, it's a novel with an elegant leather book cover.</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>It's not Yuki's...</t>
+  </si>
+  <si>
+    <t>I don't think this is Yuki's...</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>She wouldn't have something like this, I don't think?</t>
+  </si>
+  <si>
+    <t>At least, I don't think she has one like this.</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>At that moment, the door opens and someone enters the room.</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Rina</t>
   </si>
   <si>
-    <t>Heeey, Fujii-kun. Hey!"</t>
-  </si>
-  <si>
-    <t>The FD (Floor Director) is calling.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>I wonder what it could be?</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Usually they call me '&lt;RBaito|part-timer&gt;', but this time it's 'Fujii-kun'.</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Touya</t>
-  </si>
-  <si>
-    <t>What is it?"</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>The FD has a slightly unpleasant look on his face.</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>"I'm pretty sure you're friends with Morikawa, right, Fujii-kun?"</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>"Um, well..."</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>It's unusual for someone from the company to talk about private matters.</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>"You see, it looks like Morikawa left the earrings she's going to wear on stage in the dressing room today."</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Morikawa-san and the manager are currently too busy doing the final check."</t>
-  </si>
-  <si>
-    <t>Not sure why -san is only on this line.</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Right...</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>I heard they're in her bag. Sorry to ask, but could you go get them for me? You should be able to recognize Morikawa's belongings, right?"</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Yeah, probably..."</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Sorry again, but could you go and get them quickly? I heard the earrings are easy to spot."</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Oh, I also need to go back to the final check soon. Alright, hurry back."</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>His shoes make loud sounds as he walk back to the stage.</t>
-  </si>
-  <si>
-    <t>He then makes loud slipper noises and returns to the stage.</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>It can't be helped. I quickly head for the dressing room.</t>
-  </si>
-  <si>
-    <t>No choice. I quickly heads for the dressing room.</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>The waiting room was strictly upholding the rules like, "Let's use it nicely, everyone," like an elementary school, and it was a rare clean space within the station, with white walls still white.</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Let's see… Where is Yuki's bag?</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Oh, there it is.</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>A cloth bag is placed on the corner of the couch. Inside it is a faint pink pouch.</t>
-  </si>
-  <si>
-    <t>A cloth bag is placed in the corner of the long chair. There was a faint pink pouch inside.</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Probably inside this...</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>...There they are.</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>I suppose even such a small accessory is very important to a pro.</t>
-  </si>
-  <si>
-    <t>I suppose even such a small accessory is very important to an expert.</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>I can't say I understand, but I have to hurry and return them anyway.</t>
-  </si>
-  <si>
-    <t>I can't say I understand, but I have to hurry and get it anyway.</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Something catches my attention as I'm about to leave though.</t>
-  </si>
-  <si>
-    <t>Then, as I'm about to leave,</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>What's this? Someone has left their notebook on the table.</t>
-  </si>
-  <si>
-    <t>Oh no...Someone has left their notebook on the table.</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>Whose could it be?</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>I'll take a closer look.</t>
-  </si>
-  <si>
-    <t>Let me take a look.</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>No, it's not a notebook.</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Rather, it's a novel with an elegant leather book cover.</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>It's not Yuki's...</t>
-  </si>
-  <si>
-    <t>I don't think this is Yuki's...</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>She wouldn't have something like this, I don't think?</t>
-  </si>
-  <si>
-    <t>At least, I don't think she has one like this.</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>At that moment, the door opens and someone enters the room.</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Oh?</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>It's Rina Ogiso, who lets out a surprised sound upon seeing me.</t>
+    <t>It's Rina Ogata, who lets out a surprised sound upon seeing me.</t>
   </si>
   <si>
     <t>The one who makes a surprised sound is Rina Ogiso.</t>
@@ -431,13 +437,13 @@
     <t>109</t>
   </si>
   <si>
-    <t>Rina-chan...&lt;Rright|ですか&gt;?</t>
+    <t>Rina-chan...&lt;Ris it|ですか&gt;?</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>"What do you mean "&lt;Rright|ですか&gt;"?</t>
+    <t>"What do you mean "&lt;Ris it|ですか&gt;"?</t>
   </si>
   <si>
     <t>113</t>
@@ -705,9 +711,6 @@
   </si>
   <si>
     <t>Don't read many books</t>
-  </si>
-  <si>
-    <t>The dressing room follows strict rules like "let's keep it clean for everyone" that make it feel like an elementary school, but the white walls remain spotless and it is an uncommonly clean space within the station.</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1133,7 @@
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,10 +1769,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1786,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -1801,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -1818,7 +1821,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1833,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1850,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -1862,10 +1865,10 @@
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -1882,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1897,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1914,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -1929,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1946,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1958,10 +1961,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1978,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -1990,10 +1993,10 @@
         <v>9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -2010,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2022,10 +2025,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -2042,7 +2045,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -2054,10 +2057,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -2074,7 +2077,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2089,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -2106,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
@@ -2118,10 +2121,10 @@
         <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -2138,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2153,7 +2156,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -2170,7 +2173,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
@@ -2185,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -2202,7 +2205,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2214,10 +2217,10 @@
         <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -2234,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
@@ -2246,10 +2249,10 @@
         <v>9</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -2266,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2281,7 +2284,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -2298,13 +2301,13 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>9</v>
@@ -2313,7 +2316,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -2330,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2342,10 +2345,10 @@
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -2362,7 +2365,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -2377,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2394,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2409,7 +2412,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2426,22 +2429,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2458,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -2470,10 +2473,10 @@
         <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
@@ -2490,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
@@ -2505,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
@@ -2522,13 +2525,13 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>9</v>
@@ -2537,7 +2540,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2554,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
@@ -2569,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>9</v>
@@ -2586,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -2601,7 +2604,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>9</v>
@@ -2618,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>9</v>
@@ -2633,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>9</v>
@@ -2650,22 +2653,22 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -2682,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>10</v>
@@ -2697,7 +2700,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
@@ -2714,13 +2717,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>9</v>
@@ -2729,7 +2732,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -2746,7 +2749,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>10</v>
@@ -2761,7 +2764,7 @@
         <v>9</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
@@ -2778,22 +2781,22 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -2810,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>10</v>
@@ -2825,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>9</v>
@@ -2842,13 +2845,13 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
@@ -2857,7 +2860,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>9</v>
@@ -2874,13 +2877,13 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>9</v>
@@ -2889,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>9</v>
@@ -2906,7 +2909,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -2921,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>9</v>
@@ -2938,13 +2941,13 @@
         <v>9</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
@@ -2953,7 +2956,7 @@
         <v>9</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>9</v>
@@ -2970,7 +2973,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -2985,7 +2988,7 @@
         <v>9</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>9</v>
@@ -3002,22 +3005,22 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>9</v>
@@ -3034,7 +3037,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -3049,7 +3052,7 @@
         <v>36</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>9</v>
@@ -3066,13 +3069,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>9</v>
@@ -3081,7 +3084,7 @@
         <v>9</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -3098,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -3113,7 +3116,7 @@
         <v>9</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3130,22 +3133,22 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -3162,7 +3165,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -3177,7 +3180,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3194,22 +3197,22 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3226,7 +3229,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -3238,10 +3241,10 @@
         <v>9</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3258,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
@@ -3270,10 +3273,10 @@
         <v>9</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>9</v>
@@ -3290,22 +3293,22 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3322,22 +3325,22 @@
         <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>9</v>
@@ -3354,7 +3357,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>10</v>
@@ -3366,10 +3369,10 @@
         <v>9</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3386,7 +3389,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
@@ -3401,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>9</v>
@@ -3418,22 +3421,22 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>9</v>
@@ -3450,7 +3453,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
@@ -3465,7 +3468,7 @@
         <v>9</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>9</v>
@@ -3482,7 +3485,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
@@ -3497,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3514,7 +3517,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
@@ -3526,10 +3529,10 @@
         <v>9</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>9</v>
@@ -3546,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -3558,10 +3561,10 @@
         <v>9</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3578,7 +3581,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>10</v>
@@ -3590,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>9</v>
@@ -3610,7 +3613,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3625,7 +3628,7 @@
         <v>9</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -3642,7 +3645,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>9</v>
@@ -3657,7 +3660,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>9</v>
@@ -3674,22 +3677,22 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -3706,7 +3709,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>10</v>
@@ -3718,10 +3721,10 @@
         <v>9</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>9</v>
@@ -3738,7 +3741,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3753,7 +3756,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -3770,7 +3773,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>9</v>
@@ -3785,7 +3788,7 @@
         <v>9</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>9</v>
@@ -3802,13 +3805,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -3817,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -3834,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>9</v>
@@ -3849,7 +3852,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>9</v>
@@ -3866,13 +3869,13 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>9</v>
@@ -3881,7 +3884,7 @@
         <v>9</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>9</v>
@@ -3898,7 +3901,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>10</v>
@@ -3913,7 +3916,7 @@
         <v>9</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>9</v>
@@ -3930,25 +3933,25 @@
         <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>9</v>
@@ -3962,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>9</v>
@@ -3974,10 +3977,10 @@
         <v>9</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>9</v>
@@ -3994,7 +3997,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -4006,10 +4009,10 @@
         <v>9</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>9</v>
@@ -4026,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>9</v>
@@ -4038,10 +4041,10 @@
         <v>9</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>9</v>
@@ -4058,7 +4061,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -4070,10 +4073,10 @@
         <v>9</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>9</v>
